--- a/Code/Results/Cases/Case_3_224/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_224/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.010739525408095</v>
+        <v>1.034680183964114</v>
       </c>
       <c r="D2">
-        <v>1.029236198181681</v>
+        <v>1.042573795731473</v>
       </c>
       <c r="E2">
-        <v>1.01570947317514</v>
+        <v>1.033833102106783</v>
       </c>
       <c r="F2">
-        <v>1.030076979469153</v>
+        <v>1.051304869849652</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050315921459187</v>
+        <v>1.040069724736037</v>
       </c>
       <c r="J2">
-        <v>1.032603696214741</v>
+        <v>1.039798103356771</v>
       </c>
       <c r="K2">
-        <v>1.040302715196668</v>
+        <v>1.045350100056458</v>
       </c>
       <c r="L2">
-        <v>1.02695420389891</v>
+        <v>1.036634315049783</v>
       </c>
       <c r="M2">
-        <v>1.041132612604502</v>
+        <v>1.054056741365509</v>
       </c>
       <c r="N2">
-        <v>1.034070111904675</v>
+        <v>1.041274735930047</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.014840286808605</v>
+        <v>1.035543502118159</v>
       </c>
       <c r="D3">
-        <v>1.032427140223212</v>
+        <v>1.043268524090301</v>
       </c>
       <c r="E3">
-        <v>1.018962982110311</v>
+        <v>1.03456458517171</v>
       </c>
       <c r="F3">
-        <v>1.034172073686936</v>
+        <v>1.052231963448786</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051716727400594</v>
+        <v>1.040303883901377</v>
       </c>
       <c r="J3">
-        <v>1.034934406694868</v>
+        <v>1.040305089739655</v>
       </c>
       <c r="K3">
-        <v>1.042661263564086</v>
+        <v>1.045855991859023</v>
       </c>
       <c r="L3">
-        <v>1.029358843923214</v>
+        <v>1.037175067368833</v>
       </c>
       <c r="M3">
-        <v>1.044385617689091</v>
+        <v>1.054796160103415</v>
       </c>
       <c r="N3">
-        <v>1.03640413226101</v>
+        <v>1.041782442291747</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.017442718023224</v>
+        <v>1.036102605197556</v>
       </c>
       <c r="D4">
-        <v>1.034454639034888</v>
+        <v>1.043718446497382</v>
       </c>
       <c r="E4">
-        <v>1.021033406459004</v>
+        <v>1.035038695208969</v>
       </c>
       <c r="F4">
-        <v>1.036776263375609</v>
+        <v>1.052832782471279</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052595598841663</v>
+        <v>1.040454282682634</v>
       </c>
       <c r="J4">
-        <v>1.036410521987873</v>
+        <v>1.040632970999041</v>
       </c>
       <c r="K4">
-        <v>1.044154277387274</v>
+        <v>1.046183047473347</v>
       </c>
       <c r="L4">
-        <v>1.030884435261981</v>
+        <v>1.037525093381449</v>
       </c>
       <c r="M4">
-        <v>1.046450202866316</v>
+        <v>1.055274911069588</v>
       </c>
       <c r="N4">
-        <v>1.037882343807044</v>
+        <v>1.04211078918013</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.018524954717613</v>
+        <v>1.036337765276846</v>
       </c>
       <c r="D5">
-        <v>1.03529833684652</v>
+        <v>1.04390768484896</v>
       </c>
       <c r="E5">
-        <v>1.021895730959501</v>
+        <v>1.035238198928144</v>
       </c>
       <c r="F5">
-        <v>1.037860493504478</v>
+        <v>1.053085587148738</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052958621343217</v>
+        <v>1.040517241976631</v>
       </c>
       <c r="J5">
-        <v>1.037023624340462</v>
+        <v>1.040770769756521</v>
       </c>
       <c r="K5">
-        <v>1.044774217589247</v>
+        <v>1.046320470979568</v>
       </c>
       <c r="L5">
-        <v>1.031518724769418</v>
+        <v>1.037672272543342</v>
       </c>
       <c r="M5">
-        <v>1.047308781081047</v>
+        <v>1.055476247747758</v>
       </c>
       <c r="N5">
-        <v>1.038496316835298</v>
+        <v>1.042248783627651</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.018705984659577</v>
+        <v>1.036377256282835</v>
       </c>
       <c r="D6">
-        <v>1.035439496673713</v>
+        <v>1.043939464088784</v>
       </c>
       <c r="E6">
-        <v>1.022040052251898</v>
+        <v>1.035271707448721</v>
       </c>
       <c r="F6">
-        <v>1.038041930447081</v>
+        <v>1.053128047039767</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053019199811518</v>
+        <v>1.040527797361357</v>
       </c>
       <c r="J6">
-        <v>1.037126135509221</v>
+        <v>1.040793904247259</v>
       </c>
       <c r="K6">
-        <v>1.044877861262452</v>
+        <v>1.046343540811795</v>
       </c>
       <c r="L6">
-        <v>1.031624815938283</v>
+        <v>1.037696986191238</v>
       </c>
       <c r="M6">
-        <v>1.047452398417503</v>
+        <v>1.055510057110584</v>
       </c>
       <c r="N6">
-        <v>1.038598973581675</v>
+        <v>1.04227195097202</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.017457224880957</v>
+        <v>1.036105746975224</v>
       </c>
       <c r="D7">
-        <v>1.034465946273067</v>
+        <v>1.043720974754059</v>
       </c>
       <c r="E7">
-        <v>1.021044960310252</v>
+        <v>1.03504136025134</v>
       </c>
       <c r="F7">
-        <v>1.036790791998837</v>
+        <v>1.052836159595989</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052600474750062</v>
+        <v>1.040455125003167</v>
       </c>
       <c r="J7">
-        <v>1.036418743322802</v>
+        <v>1.040634812441311</v>
       </c>
       <c r="K7">
-        <v>1.044162591135489</v>
+        <v>1.046184884012165</v>
       </c>
       <c r="L7">
-        <v>1.030892938184601</v>
+        <v>1.037527059887267</v>
       </c>
       <c r="M7">
-        <v>1.046461711697763</v>
+        <v>1.055277601067826</v>
       </c>
       <c r="N7">
-        <v>1.037890576817211</v>
+        <v>1.042112633237459</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.012136206362491</v>
+        <v>1.034971846449831</v>
       </c>
       <c r="D8">
-        <v>1.030322463439449</v>
+        <v>1.042808501398282</v>
       </c>
       <c r="E8">
-        <v>1.016816375677907</v>
+        <v>1.034080145341626</v>
       </c>
       <c r="F8">
-        <v>1.031470594015123</v>
+        <v>1.051617992423885</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050795119240732</v>
+        <v>1.040149090938676</v>
       </c>
       <c r="J8">
-        <v>1.033398126194528</v>
+        <v>1.03996947687439</v>
       </c>
       <c r="K8">
-        <v>1.041106784175533</v>
+        <v>1.045521127929798</v>
       </c>
       <c r="L8">
-        <v>1.027773276360352</v>
+        <v>1.036817038590146</v>
       </c>
       <c r="M8">
-        <v>1.042240503933179</v>
+        <v>1.054306568883651</v>
       </c>
       <c r="N8">
-        <v>1.034865670066146</v>
+        <v>1.041446352817718</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.002350443363749</v>
+        <v>1.032977496001405</v>
       </c>
       <c r="D9">
-        <v>1.022723712038337</v>
+        <v>1.041203639379988</v>
       </c>
       <c r="E9">
-        <v>1.00908652857172</v>
+        <v>1.032392497164619</v>
       </c>
       <c r="F9">
-        <v>1.021729981608957</v>
+        <v>1.04947860372857</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047396318415625</v>
+        <v>1.03960129094152</v>
       </c>
       <c r="J9">
-        <v>1.027820473568585</v>
+        <v>1.038795797620812</v>
       </c>
       <c r="K9">
-        <v>1.035458565549226</v>
+        <v>1.044349335135859</v>
       </c>
       <c r="L9">
-        <v>1.022033883559614</v>
+        <v>1.035566888164178</v>
       </c>
       <c r="M9">
-        <v>1.034480075388626</v>
+        <v>1.0525978305088</v>
       </c>
       <c r="N9">
-        <v>1.029280096533708</v>
+        <v>1.040271006804977</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9955238333198263</v>
+        <v>1.031650518435777</v>
       </c>
       <c r="D10">
-        <v>1.017440095640517</v>
+        <v>1.040135865731048</v>
       </c>
       <c r="E10">
-        <v>1.003728465212534</v>
+        <v>1.031271621333549</v>
       </c>
       <c r="F10">
-        <v>1.014966100465392</v>
+        <v>1.048057269925008</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044974449920583</v>
+        <v>1.039230400305082</v>
       </c>
       <c r="J10">
-        <v>1.023916177998738</v>
+        <v>1.038012556981017</v>
       </c>
       <c r="K10">
-        <v>1.031501445060133</v>
+        <v>1.043566752135981</v>
       </c>
       <c r="L10">
-        <v>1.018030725807577</v>
+        <v>1.034734199351462</v>
       </c>
       <c r="M10">
-        <v>1.029070294656965</v>
+        <v>1.051460335281952</v>
       </c>
       <c r="N10">
-        <v>1.025370256416324</v>
+        <v>1.039486653873634</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9924894251721684</v>
+        <v>1.031076554071346</v>
       </c>
       <c r="D11">
-        <v>1.015096313679289</v>
+        <v>1.0396740342479</v>
       </c>
       <c r="E11">
-        <v>1.001355585642727</v>
+        <v>1.030787291967589</v>
       </c>
       <c r="F11">
-        <v>1.011967392494142</v>
+        <v>1.047443005782379</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043886412450858</v>
+        <v>1.039068459949065</v>
       </c>
       <c r="J11">
-        <v>1.022178025483636</v>
+        <v>1.037673232539397</v>
       </c>
       <c r="K11">
-        <v>1.029739042629294</v>
+        <v>1.043227570772302</v>
       </c>
       <c r="L11">
-        <v>1.016251982803318</v>
+        <v>1.034373828083464</v>
       </c>
       <c r="M11">
-        <v>1.026667095996771</v>
+        <v>1.050968200214096</v>
       </c>
       <c r="N11">
-        <v>1.023629635525281</v>
+        <v>1.039146847552387</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9913499229592941</v>
+        <v>1.030863453527703</v>
       </c>
       <c r="D12">
-        <v>1.014216935841279</v>
+        <v>1.039502569439207</v>
       </c>
       <c r="E12">
-        <v>1.000465877518789</v>
+        <v>1.030607544972249</v>
       </c>
       <c r="F12">
-        <v>1.010842508162751</v>
+        <v>1.047215020097225</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043476140708285</v>
+        <v>1.039008107140549</v>
       </c>
       <c r="J12">
-        <v>1.021524935482482</v>
+        <v>1.03754716701253</v>
       </c>
       <c r="K12">
-        <v>1.029076738013075</v>
+        <v>1.043101537153711</v>
       </c>
       <c r="L12">
-        <v>1.015584157490222</v>
+        <v>1.034239999708129</v>
       </c>
       <c r="M12">
-        <v>1.025764889731293</v>
+        <v>1.050785462075527</v>
       </c>
       <c r="N12">
-        <v>1.022975618061415</v>
+        <v>1.039020602998012</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9915949207419443</v>
+        <v>1.030909159979561</v>
       </c>
       <c r="D13">
-        <v>1.014405969765438</v>
+        <v>1.039539345578207</v>
       </c>
       <c r="E13">
-        <v>1.000657105592425</v>
+        <v>1.030646094294962</v>
       </c>
       <c r="F13">
-        <v>1.011084307679557</v>
+        <v>1.047263915657033</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043564426195956</v>
+        <v>1.039021062104838</v>
       </c>
       <c r="J13">
-        <v>1.021665368509815</v>
+        <v>1.037574209623615</v>
       </c>
       <c r="K13">
-        <v>1.02921915698317</v>
+        <v>1.043128573880602</v>
       </c>
       <c r="L13">
-        <v>1.01572773567748</v>
+        <v>1.034268704991385</v>
       </c>
       <c r="M13">
-        <v>1.025958855411701</v>
+        <v>1.050824657164094</v>
       </c>
       <c r="N13">
-        <v>1.023116250519755</v>
+        <v>1.039047684012706</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9923954898972767</v>
+        <v>1.031058937160298</v>
       </c>
       <c r="D14">
-        <v>1.015023805733579</v>
+        <v>1.039659859272714</v>
       </c>
       <c r="E14">
-        <v>1.001282214005572</v>
+        <v>1.030772430863599</v>
       </c>
       <c r="F14">
-        <v>1.011874637398353</v>
+        <v>1.047424156745822</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043852625517298</v>
+        <v>1.03906347526229</v>
       </c>
       <c r="J14">
-        <v>1.022124194997981</v>
+        <v>1.037662812433606</v>
       </c>
       <c r="K14">
-        <v>1.029684454687295</v>
+        <v>1.043217153737007</v>
       </c>
       <c r="L14">
-        <v>1.0161969272668</v>
+        <v>1.034362765178034</v>
       </c>
       <c r="M14">
-        <v>1.026592716754505</v>
+        <v>1.050953093734274</v>
       </c>
       <c r="N14">
-        <v>1.023575728594162</v>
+        <v>1.03913641264885</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.992887086765739</v>
+        <v>1.031151232504227</v>
       </c>
       <c r="D15">
-        <v>1.015403297710615</v>
+        <v>1.039734122381908</v>
       </c>
       <c r="E15">
-        <v>1.001666250296011</v>
+        <v>1.030850291515101</v>
       </c>
       <c r="F15">
-        <v>1.012360107590477</v>
+        <v>1.047522910387141</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044029376227013</v>
+        <v>1.039089580801863</v>
       </c>
       <c r="J15">
-        <v>1.022405894453833</v>
+        <v>1.037717400227733</v>
       </c>
       <c r="K15">
-        <v>1.029970113819983</v>
+        <v>1.043271724576005</v>
       </c>
       <c r="L15">
-        <v>1.016485058567328</v>
+        <v>1.034420722717411</v>
       </c>
       <c r="M15">
-        <v>1.026981980774539</v>
+        <v>1.051032236101178</v>
       </c>
       <c r="N15">
-        <v>1.023857828095553</v>
+        <v>1.039191077963905</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9957235137312148</v>
+        <v>1.031688623860032</v>
       </c>
       <c r="D16">
-        <v>1.01759443350119</v>
+        <v>1.04016652709154</v>
       </c>
       <c r="E16">
-        <v>1.003884800838715</v>
+        <v>1.0313037862531</v>
       </c>
       <c r="F16">
-        <v>1.015163597684737</v>
+        <v>1.048098061675247</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045045812317051</v>
+        <v>1.039241119533794</v>
       </c>
       <c r="J16">
-        <v>1.024030504719489</v>
+        <v>1.038035073213617</v>
       </c>
       <c r="K16">
-        <v>1.031617352138394</v>
+        <v>1.043589255892045</v>
       </c>
       <c r="L16">
-        <v>1.018147793826686</v>
+        <v>1.034758120082783</v>
       </c>
       <c r="M16">
-        <v>1.029228471667868</v>
+        <v>1.051493005383567</v>
       </c>
       <c r="N16">
-        <v>1.025484745494131</v>
+        <v>1.039509202081867</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9974813147551542</v>
+        <v>1.032025883741985</v>
       </c>
       <c r="D17">
-        <v>1.01895363121497</v>
+        <v>1.040437903913303</v>
       </c>
       <c r="E17">
-        <v>1.005262039666642</v>
+        <v>1.031588525046694</v>
       </c>
       <c r="F17">
-        <v>1.016903074912899</v>
+        <v>1.04845915672294</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045672713190501</v>
+        <v>1.039335816915458</v>
       </c>
       <c r="J17">
-        <v>1.025036627591971</v>
+        <v>1.038234294743742</v>
       </c>
       <c r="K17">
-        <v>1.032637300226827</v>
+        <v>1.043788350658243</v>
       </c>
       <c r="L17">
-        <v>1.019178431058922</v>
+        <v>1.034969811875098</v>
       </c>
       <c r="M17">
-        <v>1.030621083763037</v>
+        <v>1.051782144010081</v>
       </c>
       <c r="N17">
-        <v>1.026492297176496</v>
+        <v>1.039708706529417</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9984990846507452</v>
+        <v>1.032222662001566</v>
       </c>
       <c r="D18">
-        <v>1.019741058173991</v>
+        <v>1.040596243636542</v>
       </c>
       <c r="E18">
-        <v>1.006060292057293</v>
+        <v>1.031754706407529</v>
       </c>
       <c r="F18">
-        <v>1.017910975315036</v>
+        <v>1.04866989136351</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046034592066151</v>
+        <v>1.039390922739418</v>
       </c>
       <c r="J18">
-        <v>1.025618914924132</v>
+        <v>1.038350480226951</v>
       </c>
       <c r="K18">
-        <v>1.033227518789923</v>
+        <v>1.043904448528399</v>
       </c>
       <c r="L18">
-        <v>1.019775230534166</v>
+        <v>1.035093306218628</v>
       </c>
       <c r="M18">
-        <v>1.03142754171108</v>
+        <v>1.051950832934831</v>
       </c>
       <c r="N18">
-        <v>1.027075411423459</v>
+        <v>1.039825057009338</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9988448590811898</v>
+        <v>1.032289768484988</v>
       </c>
       <c r="D19">
-        <v>1.020008650968991</v>
+        <v>1.040650241858545</v>
       </c>
       <c r="E19">
-        <v>1.006331627145043</v>
+        <v>1.031811386535705</v>
       </c>
       <c r="F19">
-        <v>1.018253521164441</v>
+        <v>1.04874176571713</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046157348230481</v>
+        <v>1.039409690404702</v>
       </c>
       <c r="J19">
-        <v>1.025816694481455</v>
+        <v>1.038390093545292</v>
       </c>
       <c r="K19">
-        <v>1.033427980181429</v>
+        <v>1.043944029652141</v>
       </c>
       <c r="L19">
-        <v>1.019977994291513</v>
+        <v>1.035135417631125</v>
       </c>
       <c r="M19">
-        <v>1.031701546866047</v>
+        <v>1.052008358112916</v>
       </c>
       <c r="N19">
-        <v>1.027273471850438</v>
+        <v>1.039864726583134</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9972935019956936</v>
+        <v>1.031989692703827</v>
       </c>
       <c r="D20">
-        <v>1.018808360347118</v>
+        <v>1.04040878254307</v>
       </c>
       <c r="E20">
-        <v>1.005114801839728</v>
+        <v>1.031557965116142</v>
       </c>
       <c r="F20">
-        <v>1.01671714294634</v>
+        <v>1.048420402837198</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045605845332498</v>
+        <v>1.039325670178132</v>
       </c>
       <c r="J20">
-        <v>1.024929154752125</v>
+        <v>1.038212921915877</v>
       </c>
       <c r="K20">
-        <v>1.03252835780937</v>
+        <v>1.043766992844937</v>
       </c>
       <c r="L20">
-        <v>1.019068305934249</v>
+        <v>1.034947097467805</v>
       </c>
       <c r="M20">
-        <v>1.030472275605479</v>
+        <v>1.051751118100882</v>
       </c>
       <c r="N20">
-        <v>1.02638467171289</v>
+        <v>1.039687303349684</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9921600892400293</v>
+        <v>1.031014828869727</v>
       </c>
       <c r="D21">
-        <v>1.01484211440425</v>
+        <v>1.039624368772999</v>
       </c>
       <c r="E21">
-        <v>1.001098367877519</v>
+        <v>1.030735223614798</v>
       </c>
       <c r="F21">
-        <v>1.011642213904731</v>
+        <v>1.047376964774243</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04376792889876</v>
+        <v>1.039050991186032</v>
       </c>
       <c r="J21">
-        <v>1.021989290682878</v>
+        <v>1.037636721804311</v>
       </c>
       <c r="K21">
-        <v>1.029547650479902</v>
+        <v>1.043191070452828</v>
       </c>
       <c r="L21">
-        <v>1.016058961179039</v>
+        <v>1.034335065971507</v>
       </c>
       <c r="M21">
-        <v>1.02640632761714</v>
+        <v>1.050915270621949</v>
       </c>
       <c r="N21">
-        <v>1.023440632699458</v>
+        <v>1.039110284967868</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9888605088008271</v>
+        <v>1.03040244579099</v>
       </c>
       <c r="D22">
-        <v>1.012297295485744</v>
+        <v>1.039131640163845</v>
       </c>
       <c r="E22">
-        <v>0.9985247620474982</v>
+        <v>1.03021882806634</v>
       </c>
       <c r="F22">
-        <v>1.0083872985103</v>
+        <v>1.046721952442752</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042576797776085</v>
+        <v>1.038877127320319</v>
       </c>
       <c r="J22">
-        <v>1.020097532801914</v>
+        <v>1.037274295987325</v>
       </c>
       <c r="K22">
-        <v>1.027629014433438</v>
+        <v>1.042828696401289</v>
       </c>
       <c r="L22">
-        <v>1.014125500447907</v>
+        <v>1.033950429112683</v>
       </c>
       <c r="M22">
-        <v>1.023794412577734</v>
+        <v>1.050390103843212</v>
       </c>
       <c r="N22">
-        <v>1.021546188305315</v>
+        <v>1.038747344464652</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9906167152509173</v>
+        <v>1.030727028816142</v>
       </c>
       <c r="D23">
-        <v>1.013651330148902</v>
+        <v>1.039392800454352</v>
       </c>
       <c r="E23">
-        <v>0.9998937925372963</v>
+        <v>1.03049249375609</v>
       </c>
       <c r="F23">
-        <v>1.010119052429488</v>
+        <v>1.047069087868571</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043211684610226</v>
+        <v>1.03896940577847</v>
       </c>
       <c r="J23">
-        <v>1.021104609309385</v>
+        <v>1.037466438225122</v>
       </c>
       <c r="K23">
-        <v>1.028650453236975</v>
+        <v>1.043020822825364</v>
       </c>
       <c r="L23">
-        <v>1.015154493425205</v>
+        <v>1.034154315705656</v>
       </c>
       <c r="M23">
-        <v>1.025184447980437</v>
+        <v>1.050668469726203</v>
       </c>
       <c r="N23">
-        <v>1.02255469497694</v>
+        <v>1.038939759566465</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9973783897103582</v>
+        <v>1.032006045690045</v>
       </c>
       <c r="D24">
-        <v>1.018874018566479</v>
+        <v>1.040421941081802</v>
       </c>
       <c r="E24">
-        <v>1.005181347909371</v>
+        <v>1.031571773530598</v>
       </c>
       <c r="F24">
-        <v>1.01680117828801</v>
+        <v>1.048437913697945</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045636071710595</v>
+        <v>1.039330255452351</v>
       </c>
       <c r="J24">
-        <v>1.024977731193269</v>
+        <v>1.038222579429661</v>
       </c>
       <c r="K24">
-        <v>1.03257759869971</v>
+        <v>1.043776643616544</v>
       </c>
       <c r="L24">
-        <v>1.019118080170179</v>
+        <v>1.034957361074942</v>
       </c>
       <c r="M24">
-        <v>1.030539533589452</v>
+        <v>1.051765137252624</v>
       </c>
       <c r="N24">
-        <v>1.026433317138152</v>
+        <v>1.039696974578246</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.004931548155189</v>
+        <v>1.033492633120069</v>
       </c>
       <c r="D25">
-        <v>1.024725188300895</v>
+        <v>1.041618165463708</v>
       </c>
       <c r="E25">
-        <v>1.011119634698876</v>
+        <v>1.032828057509774</v>
       </c>
       <c r="F25">
-        <v>1.02429391576576</v>
+        <v>1.050030826160598</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048301736344645</v>
+        <v>1.039743916590408</v>
       </c>
       <c r="J25">
-        <v>1.029294078246874</v>
+        <v>1.039099365681724</v>
       </c>
       <c r="K25">
-        <v>1.036951430301141</v>
+        <v>1.044652521471878</v>
       </c>
       <c r="L25">
-        <v>1.023547750656273</v>
+        <v>1.035889956149193</v>
       </c>
       <c r="M25">
-        <v>1.036526452387695</v>
+        <v>1.053039293506618</v>
       </c>
       <c r="N25">
-        <v>1.030755793899665</v>
+        <v>1.040575005967355</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_224/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_224/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.034680183964114</v>
+        <v>1.010739525408094</v>
       </c>
       <c r="D2">
-        <v>1.042573795731473</v>
+        <v>1.02923619818168</v>
       </c>
       <c r="E2">
-        <v>1.033833102106783</v>
+        <v>1.015709473175139</v>
       </c>
       <c r="F2">
-        <v>1.051304869849652</v>
+        <v>1.030076979469152</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040069724736037</v>
+        <v>1.050315921459186</v>
       </c>
       <c r="J2">
-        <v>1.039798103356771</v>
+        <v>1.03260369621474</v>
       </c>
       <c r="K2">
-        <v>1.045350100056458</v>
+        <v>1.040302715196668</v>
       </c>
       <c r="L2">
-        <v>1.036634315049783</v>
+        <v>1.026954203898909</v>
       </c>
       <c r="M2">
-        <v>1.054056741365509</v>
+        <v>1.041132612604502</v>
       </c>
       <c r="N2">
-        <v>1.041274735930047</v>
+        <v>1.034070111904674</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.035543502118159</v>
+        <v>1.014840286808605</v>
       </c>
       <c r="D3">
-        <v>1.043268524090301</v>
+        <v>1.032427140223212</v>
       </c>
       <c r="E3">
-        <v>1.03456458517171</v>
+        <v>1.018962982110311</v>
       </c>
       <c r="F3">
-        <v>1.052231963448786</v>
+        <v>1.034172073686936</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040303883901377</v>
+        <v>1.051716727400593</v>
       </c>
       <c r="J3">
-        <v>1.040305089739655</v>
+        <v>1.034934406694867</v>
       </c>
       <c r="K3">
-        <v>1.045855991859023</v>
+        <v>1.042661263564086</v>
       </c>
       <c r="L3">
-        <v>1.037175067368833</v>
+        <v>1.029358843923214</v>
       </c>
       <c r="M3">
-        <v>1.054796160103415</v>
+        <v>1.044385617689091</v>
       </c>
       <c r="N3">
-        <v>1.041782442291747</v>
+        <v>1.03640413226101</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.036102605197556</v>
+        <v>1.017442718023223</v>
       </c>
       <c r="D4">
-        <v>1.043718446497382</v>
+        <v>1.034454639034887</v>
       </c>
       <c r="E4">
-        <v>1.035038695208969</v>
+        <v>1.021033406459003</v>
       </c>
       <c r="F4">
-        <v>1.052832782471279</v>
+        <v>1.036776263375608</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040454282682634</v>
+        <v>1.052595598841662</v>
       </c>
       <c r="J4">
-        <v>1.040632970999041</v>
+        <v>1.036410521987872</v>
       </c>
       <c r="K4">
-        <v>1.046183047473347</v>
+        <v>1.044154277387273</v>
       </c>
       <c r="L4">
-        <v>1.037525093381449</v>
+        <v>1.03088443526198</v>
       </c>
       <c r="M4">
-        <v>1.055274911069588</v>
+        <v>1.046450202866315</v>
       </c>
       <c r="N4">
-        <v>1.04211078918013</v>
+        <v>1.037882343807043</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.036337765276846</v>
+        <v>1.018524954717613</v>
       </c>
       <c r="D5">
-        <v>1.04390768484896</v>
+        <v>1.035298336846519</v>
       </c>
       <c r="E5">
-        <v>1.035238198928144</v>
+        <v>1.0218957309595</v>
       </c>
       <c r="F5">
-        <v>1.053085587148738</v>
+        <v>1.037860493504477</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040517241976631</v>
+        <v>1.052958621343216</v>
       </c>
       <c r="J5">
-        <v>1.040770769756521</v>
+        <v>1.037023624340461</v>
       </c>
       <c r="K5">
-        <v>1.046320470979568</v>
+        <v>1.044774217589246</v>
       </c>
       <c r="L5">
-        <v>1.037672272543342</v>
+        <v>1.031518724769417</v>
       </c>
       <c r="M5">
-        <v>1.055476247747758</v>
+        <v>1.047308781081046</v>
       </c>
       <c r="N5">
-        <v>1.042248783627651</v>
+        <v>1.038496316835297</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.036377256282835</v>
+        <v>1.018705984659577</v>
       </c>
       <c r="D6">
-        <v>1.043939464088784</v>
+        <v>1.035439496673713</v>
       </c>
       <c r="E6">
-        <v>1.035271707448721</v>
+        <v>1.022040052251898</v>
       </c>
       <c r="F6">
-        <v>1.053128047039767</v>
+        <v>1.038041930447081</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040527797361357</v>
+        <v>1.053019199811518</v>
       </c>
       <c r="J6">
-        <v>1.040793904247259</v>
+        <v>1.037126135509221</v>
       </c>
       <c r="K6">
-        <v>1.046343540811795</v>
+        <v>1.044877861262452</v>
       </c>
       <c r="L6">
-        <v>1.037696986191238</v>
+        <v>1.031624815938283</v>
       </c>
       <c r="M6">
-        <v>1.055510057110584</v>
+        <v>1.047452398417504</v>
       </c>
       <c r="N6">
-        <v>1.04227195097202</v>
+        <v>1.038598973581675</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.036105746975224</v>
+        <v>1.017457224880957</v>
       </c>
       <c r="D7">
-        <v>1.043720974754059</v>
+        <v>1.034465946273066</v>
       </c>
       <c r="E7">
-        <v>1.03504136025134</v>
+        <v>1.021044960310251</v>
       </c>
       <c r="F7">
-        <v>1.052836159595989</v>
+        <v>1.036790791998836</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040455125003167</v>
+        <v>1.052600474750062</v>
       </c>
       <c r="J7">
-        <v>1.040634812441311</v>
+        <v>1.036418743322801</v>
       </c>
       <c r="K7">
-        <v>1.046184884012165</v>
+        <v>1.044162591135488</v>
       </c>
       <c r="L7">
-        <v>1.037527059887267</v>
+        <v>1.0308929381846</v>
       </c>
       <c r="M7">
-        <v>1.055277601067826</v>
+        <v>1.046461711697762</v>
       </c>
       <c r="N7">
-        <v>1.042112633237459</v>
+        <v>1.037890576817211</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C8">
-        <v>1.034971846449831</v>
+        <v>1.012136206362491</v>
       </c>
       <c r="D8">
-        <v>1.042808501398282</v>
+        <v>1.030322463439449</v>
       </c>
       <c r="E8">
-        <v>1.034080145341626</v>
+        <v>1.016816375677907</v>
       </c>
       <c r="F8">
-        <v>1.051617992423885</v>
+        <v>1.031470594015122</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040149090938676</v>
+        <v>1.050795119240732</v>
       </c>
       <c r="J8">
-        <v>1.03996947687439</v>
+        <v>1.033398126194527</v>
       </c>
       <c r="K8">
-        <v>1.045521127929798</v>
+        <v>1.041106784175533</v>
       </c>
       <c r="L8">
-        <v>1.036817038590146</v>
+        <v>1.027773276360352</v>
       </c>
       <c r="M8">
-        <v>1.054306568883651</v>
+        <v>1.042240503933179</v>
       </c>
       <c r="N8">
-        <v>1.041446352817718</v>
+        <v>1.034865670066145</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.032977496001405</v>
+        <v>1.002350443363749</v>
       </c>
       <c r="D9">
-        <v>1.041203639379988</v>
+        <v>1.022723712038338</v>
       </c>
       <c r="E9">
-        <v>1.032392497164619</v>
+        <v>1.009086528571721</v>
       </c>
       <c r="F9">
-        <v>1.04947860372857</v>
+        <v>1.021729981608958</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03960129094152</v>
+        <v>1.047396318415626</v>
       </c>
       <c r="J9">
-        <v>1.038795797620812</v>
+        <v>1.027820473568585</v>
       </c>
       <c r="K9">
-        <v>1.044349335135859</v>
+        <v>1.035458565549227</v>
       </c>
       <c r="L9">
-        <v>1.035566888164178</v>
+        <v>1.022033883559614</v>
       </c>
       <c r="M9">
-        <v>1.0525978305088</v>
+        <v>1.034480075388627</v>
       </c>
       <c r="N9">
-        <v>1.040271006804977</v>
+        <v>1.029280096533709</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.031650518435777</v>
+        <v>0.9955238333198261</v>
       </c>
       <c r="D10">
-        <v>1.040135865731048</v>
+        <v>1.017440095640517</v>
       </c>
       <c r="E10">
-        <v>1.031271621333549</v>
+        <v>1.003728465212534</v>
       </c>
       <c r="F10">
-        <v>1.048057269925008</v>
+        <v>1.014966100465391</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039230400305082</v>
+        <v>1.044974449920583</v>
       </c>
       <c r="J10">
-        <v>1.038012556981017</v>
+        <v>1.023916177998738</v>
       </c>
       <c r="K10">
-        <v>1.043566752135981</v>
+        <v>1.031501445060133</v>
       </c>
       <c r="L10">
-        <v>1.034734199351462</v>
+        <v>1.018030725807577</v>
       </c>
       <c r="M10">
-        <v>1.051460335281952</v>
+        <v>1.029070294656965</v>
       </c>
       <c r="N10">
-        <v>1.039486653873634</v>
+        <v>1.025370256416323</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.031076554071346</v>
+        <v>0.9924894251721689</v>
       </c>
       <c r="D11">
-        <v>1.0396740342479</v>
+        <v>1.015096313679289</v>
       </c>
       <c r="E11">
-        <v>1.030787291967589</v>
+        <v>1.001355585642727</v>
       </c>
       <c r="F11">
-        <v>1.047443005782379</v>
+        <v>1.011967392494142</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039068459949065</v>
+        <v>1.043886412450859</v>
       </c>
       <c r="J11">
-        <v>1.037673232539397</v>
+        <v>1.022178025483637</v>
       </c>
       <c r="K11">
-        <v>1.043227570772302</v>
+        <v>1.029739042629294</v>
       </c>
       <c r="L11">
-        <v>1.034373828083464</v>
+        <v>1.016251982803319</v>
       </c>
       <c r="M11">
-        <v>1.050968200214096</v>
+        <v>1.026667095996772</v>
       </c>
       <c r="N11">
-        <v>1.039146847552387</v>
+        <v>1.023629635525281</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.030863453527703</v>
+        <v>0.9913499229592935</v>
       </c>
       <c r="D12">
-        <v>1.039502569439207</v>
+        <v>1.014216935841278</v>
       </c>
       <c r="E12">
-        <v>1.030607544972249</v>
+        <v>1.000465877518788</v>
       </c>
       <c r="F12">
-        <v>1.047215020097225</v>
+        <v>1.01084250816275</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039008107140549</v>
+        <v>1.043476140708285</v>
       </c>
       <c r="J12">
-        <v>1.03754716701253</v>
+        <v>1.021524935482481</v>
       </c>
       <c r="K12">
-        <v>1.043101537153711</v>
+        <v>1.029076738013075</v>
       </c>
       <c r="L12">
-        <v>1.034239999708129</v>
+        <v>1.015584157490221</v>
       </c>
       <c r="M12">
-        <v>1.050785462075527</v>
+        <v>1.025764889731292</v>
       </c>
       <c r="N12">
-        <v>1.039020602998012</v>
+        <v>1.022975618061414</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.030909159979561</v>
+        <v>0.991594920741944</v>
       </c>
       <c r="D13">
-        <v>1.039539345578207</v>
+        <v>1.014405969765437</v>
       </c>
       <c r="E13">
-        <v>1.030646094294962</v>
+        <v>1.000657105592425</v>
       </c>
       <c r="F13">
-        <v>1.047263915657033</v>
+        <v>1.011084307679556</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039021062104838</v>
+        <v>1.043564426195956</v>
       </c>
       <c r="J13">
-        <v>1.037574209623615</v>
+        <v>1.021665368509815</v>
       </c>
       <c r="K13">
-        <v>1.043128573880602</v>
+        <v>1.029219156983169</v>
       </c>
       <c r="L13">
-        <v>1.034268704991385</v>
+        <v>1.015727735677479</v>
       </c>
       <c r="M13">
-        <v>1.050824657164094</v>
+        <v>1.0259588554117</v>
       </c>
       <c r="N13">
-        <v>1.039047684012706</v>
+        <v>1.023116250519755</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.031058937160298</v>
+        <v>0.9923954898972759</v>
       </c>
       <c r="D14">
-        <v>1.039659859272714</v>
+        <v>1.015023805733578</v>
       </c>
       <c r="E14">
-        <v>1.030772430863599</v>
+        <v>1.001282214005571</v>
       </c>
       <c r="F14">
-        <v>1.047424156745822</v>
+        <v>1.011874637398353</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03906347526229</v>
+        <v>1.043852625517298</v>
       </c>
       <c r="J14">
-        <v>1.037662812433606</v>
+        <v>1.02212419499798</v>
       </c>
       <c r="K14">
-        <v>1.043217153737007</v>
+        <v>1.029684454687294</v>
       </c>
       <c r="L14">
-        <v>1.034362765178034</v>
+        <v>1.016196927266799</v>
       </c>
       <c r="M14">
-        <v>1.050953093734274</v>
+        <v>1.026592716754503</v>
       </c>
       <c r="N14">
-        <v>1.03913641264885</v>
+        <v>1.023575728594161</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.031151232504227</v>
+        <v>0.9928870867657392</v>
       </c>
       <c r="D15">
-        <v>1.039734122381908</v>
+        <v>1.015403297710615</v>
       </c>
       <c r="E15">
-        <v>1.030850291515101</v>
+        <v>1.001666250296011</v>
       </c>
       <c r="F15">
-        <v>1.047522910387141</v>
+        <v>1.012360107590477</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039089580801863</v>
+        <v>1.044029376227013</v>
       </c>
       <c r="J15">
-        <v>1.037717400227733</v>
+        <v>1.022405894453833</v>
       </c>
       <c r="K15">
-        <v>1.043271724576005</v>
+        <v>1.029970113819983</v>
       </c>
       <c r="L15">
-        <v>1.034420722717411</v>
+        <v>1.016485058567328</v>
       </c>
       <c r="M15">
-        <v>1.051032236101178</v>
+        <v>1.026981980774538</v>
       </c>
       <c r="N15">
-        <v>1.039191077963905</v>
+        <v>1.023857828095553</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.031688623860032</v>
+        <v>0.995723513731214</v>
       </c>
       <c r="D16">
-        <v>1.04016652709154</v>
+        <v>1.017594433501189</v>
       </c>
       <c r="E16">
-        <v>1.0313037862531</v>
+        <v>1.003884800838713</v>
       </c>
       <c r="F16">
-        <v>1.048098061675247</v>
+        <v>1.015163597684736</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039241119533794</v>
+        <v>1.045045812317051</v>
       </c>
       <c r="J16">
-        <v>1.038035073213617</v>
+        <v>1.024030504719488</v>
       </c>
       <c r="K16">
-        <v>1.043589255892045</v>
+        <v>1.031617352138392</v>
       </c>
       <c r="L16">
-        <v>1.034758120082783</v>
+        <v>1.018147793826685</v>
       </c>
       <c r="M16">
-        <v>1.051493005383567</v>
+        <v>1.029228471667867</v>
       </c>
       <c r="N16">
-        <v>1.039509202081867</v>
+        <v>1.02548474549413</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.032025883741985</v>
+        <v>0.9974813147551542</v>
       </c>
       <c r="D17">
-        <v>1.040437903913303</v>
+        <v>1.01895363121497</v>
       </c>
       <c r="E17">
-        <v>1.031588525046694</v>
+        <v>1.005262039666642</v>
       </c>
       <c r="F17">
-        <v>1.04845915672294</v>
+        <v>1.016903074912899</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039335816915458</v>
+        <v>1.045672713190501</v>
       </c>
       <c r="J17">
-        <v>1.038234294743742</v>
+        <v>1.025036627591971</v>
       </c>
       <c r="K17">
-        <v>1.043788350658243</v>
+        <v>1.032637300226827</v>
       </c>
       <c r="L17">
-        <v>1.034969811875098</v>
+        <v>1.019178431058922</v>
       </c>
       <c r="M17">
-        <v>1.051782144010081</v>
+        <v>1.030621083763037</v>
       </c>
       <c r="N17">
-        <v>1.039708706529417</v>
+        <v>1.026492297176496</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.032222662001566</v>
+        <v>0.9984990846507449</v>
       </c>
       <c r="D18">
-        <v>1.040596243636542</v>
+        <v>1.019741058173991</v>
       </c>
       <c r="E18">
-        <v>1.031754706407529</v>
+        <v>1.006060292057293</v>
       </c>
       <c r="F18">
-        <v>1.04866989136351</v>
+        <v>1.017910975315036</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039390922739418</v>
+        <v>1.04603459206615</v>
       </c>
       <c r="J18">
-        <v>1.038350480226951</v>
+        <v>1.025618914924132</v>
       </c>
       <c r="K18">
-        <v>1.043904448528399</v>
+        <v>1.033227518789922</v>
       </c>
       <c r="L18">
-        <v>1.035093306218628</v>
+        <v>1.019775230534165</v>
       </c>
       <c r="M18">
-        <v>1.051950832934831</v>
+        <v>1.03142754171108</v>
       </c>
       <c r="N18">
-        <v>1.039825057009338</v>
+        <v>1.027075411423458</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.032289768484988</v>
+        <v>0.9988448590811891</v>
       </c>
       <c r="D19">
-        <v>1.040650241858545</v>
+        <v>1.02000865096899</v>
       </c>
       <c r="E19">
-        <v>1.031811386535705</v>
+        <v>1.006331627145042</v>
       </c>
       <c r="F19">
-        <v>1.04874176571713</v>
+        <v>1.018253521164441</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039409690404702</v>
+        <v>1.046157348230481</v>
       </c>
       <c r="J19">
-        <v>1.038390093545292</v>
+        <v>1.025816694481454</v>
       </c>
       <c r="K19">
-        <v>1.043944029652141</v>
+        <v>1.033427980181428</v>
       </c>
       <c r="L19">
-        <v>1.035135417631125</v>
+        <v>1.019977994291512</v>
       </c>
       <c r="M19">
-        <v>1.052008358112916</v>
+        <v>1.031701546866046</v>
       </c>
       <c r="N19">
-        <v>1.039864726583134</v>
+        <v>1.027273471850437</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.031989692703827</v>
+        <v>0.9972935019956928</v>
       </c>
       <c r="D20">
-        <v>1.04040878254307</v>
+        <v>1.018808360347117</v>
       </c>
       <c r="E20">
-        <v>1.031557965116142</v>
+        <v>1.005114801839727</v>
       </c>
       <c r="F20">
-        <v>1.048420402837198</v>
+        <v>1.016717142946339</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039325670178132</v>
+        <v>1.045605845332497</v>
       </c>
       <c r="J20">
-        <v>1.038212921915877</v>
+        <v>1.024929154752124</v>
       </c>
       <c r="K20">
-        <v>1.043766992844937</v>
+        <v>1.03252835780937</v>
       </c>
       <c r="L20">
-        <v>1.034947097467805</v>
+        <v>1.019068305934248</v>
       </c>
       <c r="M20">
-        <v>1.051751118100882</v>
+        <v>1.030472275605478</v>
       </c>
       <c r="N20">
-        <v>1.039687303349684</v>
+        <v>1.026384671712889</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.031014828869727</v>
+        <v>0.9921600892400289</v>
       </c>
       <c r="D21">
-        <v>1.039624368772999</v>
+        <v>1.01484211440425</v>
       </c>
       <c r="E21">
-        <v>1.030735223614798</v>
+        <v>1.001098367877519</v>
       </c>
       <c r="F21">
-        <v>1.047376964774243</v>
+        <v>1.011642213904731</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039050991186032</v>
+        <v>1.043767928898759</v>
       </c>
       <c r="J21">
-        <v>1.037636721804311</v>
+        <v>1.021989290682878</v>
       </c>
       <c r="K21">
-        <v>1.043191070452828</v>
+        <v>1.029547650479903</v>
       </c>
       <c r="L21">
-        <v>1.034335065971507</v>
+        <v>1.016058961179039</v>
       </c>
       <c r="M21">
-        <v>1.050915270621949</v>
+        <v>1.02640632761714</v>
       </c>
       <c r="N21">
-        <v>1.039110284967868</v>
+        <v>1.023440632699457</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.03040244579099</v>
+        <v>0.9888605088008275</v>
       </c>
       <c r="D22">
-        <v>1.039131640163845</v>
+        <v>1.012297295485745</v>
       </c>
       <c r="E22">
-        <v>1.03021882806634</v>
+        <v>0.9985247620474985</v>
       </c>
       <c r="F22">
-        <v>1.046721952442752</v>
+        <v>1.0083872985103</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038877127320319</v>
+        <v>1.042576797776085</v>
       </c>
       <c r="J22">
-        <v>1.037274295987325</v>
+        <v>1.020097532801914</v>
       </c>
       <c r="K22">
-        <v>1.042828696401289</v>
+        <v>1.027629014433438</v>
       </c>
       <c r="L22">
-        <v>1.033950429112683</v>
+        <v>1.014125500447907</v>
       </c>
       <c r="M22">
-        <v>1.050390103843212</v>
+        <v>1.023794412577734</v>
       </c>
       <c r="N22">
-        <v>1.038747344464652</v>
+        <v>1.021546188305315</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.030727028816142</v>
+        <v>0.9906167152509171</v>
       </c>
       <c r="D23">
-        <v>1.039392800454352</v>
+        <v>1.013651330148902</v>
       </c>
       <c r="E23">
-        <v>1.03049249375609</v>
+        <v>0.9998937925372957</v>
       </c>
       <c r="F23">
-        <v>1.047069087868571</v>
+        <v>1.010119052429488</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03896940577847</v>
+        <v>1.043211684610225</v>
       </c>
       <c r="J23">
-        <v>1.037466438225122</v>
+        <v>1.021104609309385</v>
       </c>
       <c r="K23">
-        <v>1.043020822825364</v>
+        <v>1.028650453236974</v>
       </c>
       <c r="L23">
-        <v>1.034154315705656</v>
+        <v>1.015154493425205</v>
       </c>
       <c r="M23">
-        <v>1.050668469726203</v>
+        <v>1.025184447980437</v>
       </c>
       <c r="N23">
-        <v>1.038939759566465</v>
+        <v>1.02255469497694</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.032006045690045</v>
+        <v>0.9973783897103579</v>
       </c>
       <c r="D24">
-        <v>1.040421941081802</v>
+        <v>1.018874018566478</v>
       </c>
       <c r="E24">
-        <v>1.031571773530598</v>
+        <v>1.005181347909372</v>
       </c>
       <c r="F24">
-        <v>1.048437913697945</v>
+        <v>1.01680117828801</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039330255452351</v>
+        <v>1.045636071710595</v>
       </c>
       <c r="J24">
-        <v>1.038222579429661</v>
+        <v>1.024977731193269</v>
       </c>
       <c r="K24">
-        <v>1.043776643616544</v>
+        <v>1.03257759869971</v>
       </c>
       <c r="L24">
-        <v>1.034957361074942</v>
+        <v>1.01911808017018</v>
       </c>
       <c r="M24">
-        <v>1.051765137252624</v>
+        <v>1.030539533589452</v>
       </c>
       <c r="N24">
-        <v>1.039696974578246</v>
+        <v>1.026433317138152</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.033492633120069</v>
+        <v>1.00493154815519</v>
       </c>
       <c r="D25">
-        <v>1.041618165463708</v>
+        <v>1.024725188300895</v>
       </c>
       <c r="E25">
-        <v>1.032828057509774</v>
+        <v>1.011119634698876</v>
       </c>
       <c r="F25">
-        <v>1.050030826160598</v>
+        <v>1.024293915765761</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039743916590408</v>
+        <v>1.048301736344645</v>
       </c>
       <c r="J25">
-        <v>1.039099365681724</v>
+        <v>1.029294078246874</v>
       </c>
       <c r="K25">
-        <v>1.044652521471878</v>
+        <v>1.036951430301141</v>
       </c>
       <c r="L25">
-        <v>1.035889956149193</v>
+        <v>1.023547750656273</v>
       </c>
       <c r="M25">
-        <v>1.053039293506618</v>
+        <v>1.036526452387695</v>
       </c>
       <c r="N25">
-        <v>1.040575005967355</v>
+        <v>1.030755793899665</v>
       </c>
     </row>
   </sheetData>
